--- a/output/fit_clients/fit_round_188.xlsx
+++ b/output/fit_clients/fit_round_188.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2122129729.025961</v>
+        <v>1706081253.853088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08532636085662221</v>
+        <v>0.08738776080180316</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04170958071822284</v>
+        <v>0.04304940139774585</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1061064876.554857</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1866597869.427675</v>
+        <v>2091258682.622566</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1180643205676148</v>
+        <v>0.1350768323732841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03958608836289512</v>
+        <v>0.04154364985895452</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>933298954.0891612</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4880368353.977151</v>
+        <v>3408185874.832977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1342975757676569</v>
+        <v>0.1500546601055781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0254259813061283</v>
+        <v>0.0265413966801334</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2440184253.518045</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2796737739.48588</v>
+        <v>3444611067.285411</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09952567009483841</v>
+        <v>0.1062210637031981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04980127971899808</v>
+        <v>0.03610276626605943</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1398368953.021676</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2127926626.572339</v>
+        <v>2361364967.915707</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1360286434719887</v>
+        <v>0.115773808712357</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05572526152448443</v>
+        <v>0.0565121097907112</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1063963329.013059</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2042935420.898509</v>
+        <v>2761350243.549399</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07860504116745484</v>
+        <v>0.101000534455785</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03568967426249613</v>
+        <v>0.04402308737971401</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>59</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1021467767.455575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3473151163.264682</v>
+        <v>2869199723.844261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.151237092712479</v>
+        <v>0.2108026038049516</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02180464261931605</v>
+        <v>0.02574638411058152</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>60</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1736575687.488834</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2006250093.632051</v>
+        <v>1903832837.018522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1668224065128984</v>
+        <v>0.1715392212152542</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03000275537986023</v>
+        <v>0.02986971121944784</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1003125072.532566</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4043888109.827279</v>
+        <v>5101915289.100884</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1519888031035593</v>
+        <v>0.1671982635917883</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04561520871674603</v>
+        <v>0.0343866352303142</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>79</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2021944080.207018</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3597048449.643392</v>
+        <v>3851930734.398248</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1895922890700848</v>
+        <v>0.1178901813598435</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04197657118805003</v>
+        <v>0.0338021394165406</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>78</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1798524209.360069</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2541558608.263909</v>
+        <v>2237976885.670295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1665237331915602</v>
+        <v>0.1894645504924609</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04701362579431981</v>
+        <v>0.04372725324222961</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>66</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1270779280.149641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3418537061.670586</v>
+        <v>4216571266.088235</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09394393092606794</v>
+        <v>0.07372262036017684</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0253074732280882</v>
+        <v>0.03111964775731451</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>63</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1709268615.277799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3421211106.296278</v>
+        <v>2405175979.032456</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1462080524083875</v>
+        <v>0.1602530905708233</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03110256981739475</v>
+        <v>0.03037906552281146</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1710605557.064528</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1153542404.408672</v>
+        <v>1648630175.737012</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09574146436930907</v>
+        <v>0.09017442176722357</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03227735741294841</v>
+        <v>0.04420295133747291</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>576771209.1257185</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2385340370.707388</v>
+        <v>1863461570.173045</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1035309449748041</v>
+        <v>0.07900990624824278</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03917601554108757</v>
+        <v>0.04773019995563266</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1192670226.387527</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4361802574.560413</v>
+        <v>3694495986.186748</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1305892031332415</v>
+        <v>0.1577077447448139</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0351032041538365</v>
+        <v>0.05289223476513986</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>55</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2180901303.92582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3924855136.209124</v>
+        <v>3950135585.599115</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1326058143734148</v>
+        <v>0.1123650309176859</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02145085227005481</v>
+        <v>0.02663162820568564</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>61</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1962427531.358882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1170890945.196658</v>
+        <v>1239229238.710945</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1751913389607503</v>
+        <v>0.1343680699038983</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02162440249346464</v>
+        <v>0.01901780806876444</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>585445543.4008913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2626595692.984916</v>
+        <v>2590015836.227932</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09739793605973311</v>
+        <v>0.1002943264492277</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02175127558015657</v>
+        <v>0.02348145683310991</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>31</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1313297806.06159</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1975358764.108145</v>
+        <v>2363527260.987872</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0807886814136151</v>
+        <v>0.07856988725183592</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02820422098608326</v>
+        <v>0.04003860341873932</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>987679420.3607677</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3484525403.883913</v>
+        <v>3206240988.468059</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1138692450182848</v>
+        <v>0.1371676399796014</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04165697113402463</v>
+        <v>0.04941067765803047</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1742262734.4373</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1550759642.693656</v>
+        <v>1181718817.800898</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1677603302861358</v>
+        <v>0.164430863979526</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04986027365393196</v>
+        <v>0.04537511772014628</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>775379798.7102475</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2633366633.442445</v>
+        <v>3236984073.876629</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1114571907318917</v>
+        <v>0.09650977545878306</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03357028979947971</v>
+        <v>0.02415499058433341</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>55</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1316683376.591791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1073785820.7261</v>
+        <v>1377088494.670173</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1136354626360079</v>
+        <v>0.1172338405598218</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01992451018181703</v>
+        <v>0.02300683580688164</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>536892957.3606614</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1220140723.854307</v>
+        <v>1284582060.621234</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1241802122190852</v>
+        <v>0.1023160691320176</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03005105831615954</v>
+        <v>0.03470022653468652</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>610070387.9180014</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3109946950.630118</v>
+        <v>3842879496.907459</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1527352856346077</v>
+        <v>0.113842801917273</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02552246667853426</v>
+        <v>0.02298059050874376</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1554973529.629546</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2662509829.453662</v>
+        <v>3038213038.401093</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1412449683902487</v>
+        <v>0.1040103478592989</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03515135772507385</v>
+        <v>0.04262972480099648</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>60</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1331254896.620021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5141856409.365971</v>
+        <v>5256194595.705747</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1135518807558385</v>
+        <v>0.1431108192153667</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04556140399583924</v>
+        <v>0.0365550153960001</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>83</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2570928142.39277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1834847006.599088</v>
+        <v>1450507164.147934</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1229166638204713</v>
+        <v>0.1233420367970586</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03078654411229801</v>
+        <v>0.03547541851024259</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>917423521.9267803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>908849700.059492</v>
+        <v>1335312943.132594</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09746707364136564</v>
+        <v>0.08054632869952244</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03271709953615608</v>
+        <v>0.0457192019636241</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>454424870.0082508</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1759195319.068203</v>
+        <v>1384563537.566831</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07869374942665297</v>
+        <v>0.09066031799327144</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03698880952007187</v>
+        <v>0.02659297978139453</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>879597781.5463284</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2212110200.116552</v>
+        <v>2668392274.543785</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1866750383463009</v>
+        <v>0.1564433692032502</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0503359722677445</v>
+        <v>0.06062350066765324</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>57</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1106055162.749624</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1374214359.497606</v>
+        <v>1249808468.57952</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08112513095756112</v>
+        <v>0.07605266355979781</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0268147618291467</v>
+        <v>0.02149041139402932</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>687107156.191631</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1136418866.052488</v>
+        <v>849628572.6600709</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0836460633538135</v>
+        <v>0.08669844586861947</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04300704104736151</v>
+        <v>0.03916260833438335</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>568209421.6757296</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3206102817.965807</v>
+        <v>2538758717.311758</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1423101098919043</v>
+        <v>0.1169466519060156</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02838214283085641</v>
+        <v>0.02715039241384135</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1603051374.362922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2068397437.878376</v>
+        <v>2111356527.377908</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1035189907453004</v>
+        <v>0.09104985260364107</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04200447889366347</v>
+        <v>0.03099155942186553</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>52</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1034198755.590843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1380522573.200209</v>
+        <v>1582339785.054807</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1027861900368246</v>
+        <v>0.07581317916652566</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03709347859192693</v>
+        <v>0.02752950932096384</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>690261352.7109993</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1914401146.747509</v>
+        <v>1626146190.186989</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1350802991523471</v>
+        <v>0.1442046688114321</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0251318261617719</v>
+        <v>0.02759032930052431</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>957200580.9049993</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1523601452.505443</v>
+        <v>1107637682.305008</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09863945274728197</v>
+        <v>0.1442878134907614</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05017352048677694</v>
+        <v>0.05187653617695272</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>761800686.5254104</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2423592006.431552</v>
+        <v>1928955897.317218</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1634238652343587</v>
+        <v>0.1107627809671124</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03515563253170954</v>
+        <v>0.04646492098091536</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1211796035.918635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3894413738.827295</v>
+        <v>3450645427.713875</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1152692193480697</v>
+        <v>0.1064533135201916</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03941624358338013</v>
+        <v>0.04649260791641416</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>63</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1947206891.388661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2403930558.659949</v>
+        <v>2731920823.525961</v>
       </c>
       <c r="F43" t="n">
-        <v>0.153758806565581</v>
+        <v>0.1312862879403985</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01736628761190342</v>
+        <v>0.02093400772732715</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>65</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1201965337.608059</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1515153960.712772</v>
+        <v>2244952751.741885</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08450991571053731</v>
+        <v>0.09216923310885075</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02670890136276155</v>
+        <v>0.03530619195539491</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>757576989.9236373</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2068663693.434245</v>
+        <v>2517119466.953032</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1681481099752726</v>
+        <v>0.1244626647420142</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04267479098783465</v>
+        <v>0.04282869502102219</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1034331844.468205</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4336851975.170749</v>
+        <v>4422535789.442182</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1430726581263224</v>
+        <v>0.1546955317578156</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04366442310729982</v>
+        <v>0.05507150236228233</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>67</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2168425976.391582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3258678051.367392</v>
+        <v>3308083044.742435</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1574161516998631</v>
+        <v>0.1444177706187807</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05187718944706528</v>
+        <v>0.0382092781558226</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>50</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1629338982.772892</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2883889789.101784</v>
+        <v>4715376277.825007</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09571698013744397</v>
+        <v>0.09183228197606542</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02440380846771248</v>
+        <v>0.02857860913287224</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1441944993.751456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1600446111.856663</v>
+        <v>1948890344.500726</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1524040921108992</v>
+        <v>0.1754484542029906</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0340871707165379</v>
+        <v>0.03397699950660232</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>800223072.3123721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3716177535.47578</v>
+        <v>4187023186.759332</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1269874209580271</v>
+        <v>0.1719042927341295</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03321328871243943</v>
+        <v>0.04406566291306462</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>64</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1858088776.585462</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1498289699.783537</v>
+        <v>1480720046.362469</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1517646536055054</v>
+        <v>0.189619612499827</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03483278243615041</v>
+        <v>0.05174099889653785</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>749144853.0651667</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4737656620.48607</v>
+        <v>4107467646.203099</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1161198989570953</v>
+        <v>0.1075248231708086</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05535615892751548</v>
+        <v>0.03919929282403133</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>77</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2368828323.278587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3764242554.59592</v>
+        <v>3411194736.051071</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1376707547075353</v>
+        <v>0.183963728798846</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02774986851190055</v>
+        <v>0.0218263301591462</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>54</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1882121256.943628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3648809408.003535</v>
+        <v>4809459818.632386</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1409835808441483</v>
+        <v>0.1252696814807173</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03885054523218765</v>
+        <v>0.04064212274328715</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>62</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1824404740.456284</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4378396589.034016</v>
+        <v>3461988240.711571</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1947689095626465</v>
+        <v>0.1942492106838723</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02049540843054511</v>
+        <v>0.03208403556041117</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2189198286.088589</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1677951380.385789</v>
+        <v>1199449064.015959</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1110081997886759</v>
+        <v>0.131089384402879</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05299862249658571</v>
+        <v>0.0463587093787126</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>838975706.0590621</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3693218570.87636</v>
+        <v>4129749750.892539</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1172061758646257</v>
+        <v>0.1437472129107324</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02589047000650428</v>
+        <v>0.02282300201147083</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>59</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1846609348.023479</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1378126690.89498</v>
+        <v>1528747833.702844</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2004645689914887</v>
+        <v>0.1975055434686897</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03125208221450048</v>
+        <v>0.0335262883163987</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>689063387.6699234</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3528570279.631485</v>
+        <v>4012127712.663806</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09892696485550273</v>
+        <v>0.1286264620720833</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0366972920099187</v>
+        <v>0.03864652882195549</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1764285138.454538</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3145331827.399594</v>
+        <v>2648568202.985019</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1910802250745089</v>
+        <v>0.2064030156660123</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02866836493679033</v>
+        <v>0.02345442407007101</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1572665999.263734</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2543098705.239121</v>
+        <v>3303260098.028833</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1670024774830181</v>
+        <v>0.128410802382516</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02751599185019362</v>
+        <v>0.03110416519024792</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1271549376.150354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1868355874.175242</v>
+        <v>1770420880.267368</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1464713198626071</v>
+        <v>0.1309643372582278</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03461290080291426</v>
+        <v>0.03461798304526362</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>934177975.383876</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4284579364.910191</v>
+        <v>3601316026.380162</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07812303946651419</v>
+        <v>0.07353097213664189</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04621915995989871</v>
+        <v>0.03223204760738951</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>54</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2142289732.133762</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5086295488.386713</v>
+        <v>5106395407.287903</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1559049358783169</v>
+        <v>0.185413465276367</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03440581277399222</v>
+        <v>0.03460071819126213</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>58</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2543147856.427437</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5683017940.097276</v>
+        <v>4370579470.578367</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1192181625239267</v>
+        <v>0.1378119449934317</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02043083877304491</v>
+        <v>0.02838859673601759</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>67</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2841508888.164537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4795942348.162789</v>
+        <v>4407251096.126269</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1258679759002731</v>
+        <v>0.1470219151788338</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04337151008139788</v>
+        <v>0.04518427316905252</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>54</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2397971190.286626</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2388742498.034627</v>
+        <v>2694215036.559229</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08278665795065651</v>
+        <v>0.08483513834137363</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03577140331162982</v>
+        <v>0.04912505151079785</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>61</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1194371318.973731</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5983042728.506155</v>
+        <v>4818464015.471245</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1537145026449259</v>
+        <v>0.127105691257622</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04170547091498841</v>
+        <v>0.04313243089886273</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>61</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2991521480.181583</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1776167126.153781</v>
+        <v>2091432885.780782</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1699930105092237</v>
+        <v>0.1167326948790059</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0488070244580844</v>
+        <v>0.05434186237529993</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>888083539.0972991</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3033596641.623904</v>
+        <v>3092259562.895924</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07426382326207373</v>
+        <v>0.0993725126691546</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04643720470920722</v>
+        <v>0.04022129633726038</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>54</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1516798299.928237</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5263547615.071713</v>
+        <v>5242177832.152031</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1712326480580793</v>
+        <v>0.1308076210379465</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03314306857623921</v>
+        <v>0.02734845403484858</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>68</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2631773932.926608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1404408265.150766</v>
+        <v>1648790158.149727</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1033912509418004</v>
+        <v>0.07885773582189512</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03936557306568359</v>
+        <v>0.03498892204886367</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>702204174.951237</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2257507472.803202</v>
+        <v>2698853801.13741</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09324829919674228</v>
+        <v>0.08331006047707697</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04798469301319189</v>
+        <v>0.04036181299849046</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>72</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1128753800.35031</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2573582002.923493</v>
+        <v>2743545600.808713</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1751955870916623</v>
+        <v>0.1588391768195133</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03446614463347796</v>
+        <v>0.0306847610709425</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>64</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1286791103.71008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1522157282.064426</v>
+        <v>1802484502.420504</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1636118057107143</v>
+        <v>0.1238965084569134</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02421426200447583</v>
+        <v>0.0320853674908745</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>761078649.9659309</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4223134865.029795</v>
+        <v>4633365472.23174</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08843695586993115</v>
+        <v>0.1236461012878987</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03015488128690382</v>
+        <v>0.0237896107664331</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2111567426.533438</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2068455033.474826</v>
+        <v>1991669697.592638</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1536627809495408</v>
+        <v>0.1568976919531807</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02043999891683734</v>
+        <v>0.02976748116385893</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1034227588.375596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4057213970.77652</v>
+        <v>3937303577.568426</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0937806528453427</v>
+        <v>0.0933106429354838</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0449267172230619</v>
+        <v>0.05194951041079834</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>65</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2028606946.998746</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1701885237.293578</v>
+        <v>1827112656.859924</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1274752531192577</v>
+        <v>0.1256227250496095</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02570858088672712</v>
+        <v>0.03309235247106057</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>850942688.1363833</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5489049218.932764</v>
+        <v>3586168289.087876</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07296514743943432</v>
+        <v>0.08134718411110552</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02746150395717428</v>
+        <v>0.03069137268002699</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>39</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2744524682.963409</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3380631828.76717</v>
+        <v>3869022208.212534</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1252686319190542</v>
+        <v>0.1315927117225667</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02539269668118141</v>
+        <v>0.03140289602381056</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1690315854.572611</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5064165152.61748</v>
+        <v>5602038494.590352</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1668382940358249</v>
+        <v>0.2129477699698902</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02595141629675952</v>
+        <v>0.01940225687427527</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2532082556.650725</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2464189209.566347</v>
+        <v>2143267714.387228</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0954842590479261</v>
+        <v>0.12970420372021</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03323364950978706</v>
+        <v>0.03772507800149135</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1232094647.866979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1925214788.276433</v>
+        <v>2376820570.58902</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08974207945366583</v>
+        <v>0.08565426182632518</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04108916545506185</v>
+        <v>0.04698706058314262</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>962607410.1171038</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2506516781.192992</v>
+        <v>3039955795.951335</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1807545188580925</v>
+        <v>0.1720445790379683</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05388828522766985</v>
+        <v>0.0369183633885057</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>70</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1253258396.244422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1748165035.170483</v>
+        <v>2349857630.496898</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1525602894073578</v>
+        <v>0.1110340425136293</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01978581760881276</v>
+        <v>0.02022749003302064</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>874082510.1408571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1284592272.067327</v>
+        <v>1350200814.63983</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1600741648812278</v>
+        <v>0.1285046006947706</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03666601865390465</v>
+        <v>0.03379886731897425</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>642296213.2719077</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2381118366.118792</v>
+        <v>3711083561.516888</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1746855969790886</v>
+        <v>0.1079870493750994</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03332777901847585</v>
+        <v>0.03688554182794282</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1190559152.330822</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2984121331.064183</v>
+        <v>2499792902.570827</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1380465196285372</v>
+        <v>0.1575013060108612</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02661556596864299</v>
+        <v>0.04178582647752446</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>63</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1492060704.775724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2075920498.704175</v>
+        <v>1708861677.722444</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1258261212868471</v>
+        <v>0.1300013575859371</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05240693421720485</v>
+        <v>0.04476040618979353</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1037960333.4561</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1349711151.782786</v>
+        <v>1349046613.377945</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1754135402443344</v>
+        <v>0.1887739583078626</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04577075543349834</v>
+        <v>0.05582766525737523</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>674855634.8167604</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2246502007.710667</v>
+        <v>2865839002.391682</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07271070446727372</v>
+        <v>0.1060959512860053</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0445036674367837</v>
+        <v>0.04041762710091669</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1123250968.639602</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4479717829.614126</v>
+        <v>4016919828.469859</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09924938796401414</v>
+        <v>0.1146542970827394</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04529764594049521</v>
+        <v>0.05046092731056477</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2239858884.393688</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2029419201.768287</v>
+        <v>2078286877.766644</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1447954274541484</v>
+        <v>0.1495746828893257</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03679046537493619</v>
+        <v>0.03645581624341359</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1014709603.013613</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2386439978.57604</v>
+        <v>2824705080.321967</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08436083903694885</v>
+        <v>0.1025886532672621</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03850150671251108</v>
+        <v>0.05180690226203698</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>44</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1193220033.646511</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1626428570.818535</v>
+        <v>1636685903.46367</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08539813850123588</v>
+        <v>0.1177572665724257</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04678024863579647</v>
+        <v>0.04145347355090023</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>813214312.2433587</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4075349882.394078</v>
+        <v>3269158080.768915</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1157927623883586</v>
+        <v>0.1477913127629454</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01808121402744102</v>
+        <v>0.02673907643185799</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>61</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2037675003.611684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3888645834.331561</v>
+        <v>3328380329.630421</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1142503743494429</v>
+        <v>0.09564867205215911</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02958929566584011</v>
+        <v>0.02183665577843343</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>49</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1944322962.087096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2129233243.042561</v>
+        <v>2995344443.303642</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08951800172737261</v>
+        <v>0.1221657242939923</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02727719440413579</v>
+        <v>0.0328255623145607</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>59</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1064616544.340342</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4790273970.336185</v>
+        <v>3561525979.483152</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1296200829163358</v>
+        <v>0.117758053584089</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02240222695715159</v>
+        <v>0.01889742362922283</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>57</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2395137118.905728</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2303946225.546938</v>
+        <v>3067896322.114964</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2154049177640569</v>
+        <v>0.2047091836938944</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0392800874019907</v>
+        <v>0.05516629197763553</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>76</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1151973109.80845</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_188.xlsx
+++ b/output/fit_clients/fit_round_188.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1706081253.853088</v>
+        <v>1799523370.731427</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08738776080180316</v>
+        <v>0.07986697737972168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04304940139774585</v>
+        <v>0.03230648615428811</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2091258682.622566</v>
+        <v>1820451848.253935</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1350768323732841</v>
+        <v>0.1115584616506141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04154364985895452</v>
+        <v>0.04390343204664536</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3408185874.832977</v>
+        <v>4328581822.452294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1500546601055781</v>
+        <v>0.1589290878611832</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0265413966801334</v>
+        <v>0.02628550794775789</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3444611067.285411</v>
+        <v>2709758421.024787</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1062210637031981</v>
+        <v>0.08743355249585064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03610276626605943</v>
+        <v>0.03947466498160201</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2361364967.915707</v>
+        <v>2254005121.838453</v>
       </c>
       <c r="F6" t="n">
-        <v>0.115773808712357</v>
+        <v>0.1038368450744901</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0565121097907112</v>
+        <v>0.0391519368793805</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2761350243.549399</v>
+        <v>2560788707.814266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.101000534455785</v>
+        <v>0.09295154196847588</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04402308737971401</v>
+        <v>0.0411294232751054</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2869199723.844261</v>
+        <v>2606281220.232924</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2108026038049516</v>
+        <v>0.1719970785764549</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02574638411058152</v>
+        <v>0.0301536557304513</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1903832837.018522</v>
+        <v>2240789743.194445</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1715392212152542</v>
+        <v>0.1325012660435445</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02986971121944784</v>
+        <v>0.03474323317048137</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5101915289.100884</v>
+        <v>4886427909.166853</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1671982635917883</v>
+        <v>0.1904402227577536</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0343866352303142</v>
+        <v>0.0507937285388822</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3851930734.398248</v>
+        <v>3805163342.641039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1178901813598435</v>
+        <v>0.1571195370951894</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0338021394165406</v>
+        <v>0.04040107058409716</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2237976885.670295</v>
+        <v>2791124781.721396</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1894645504924609</v>
+        <v>0.1223519470588291</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04372725324222961</v>
+        <v>0.04170800443889323</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4216571266.088235</v>
+        <v>4653368093.400019</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07372262036017684</v>
+        <v>0.08912661809474844</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03111964775731451</v>
+        <v>0.03015271611180772</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2405175979.032456</v>
+        <v>3713796909.595987</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1602530905708233</v>
+        <v>0.1787334631538289</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03037906552281146</v>
+        <v>0.02902952491766194</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1648630175.737012</v>
+        <v>1728284511.09395</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09017442176722357</v>
+        <v>0.1094155919012233</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04420295133747291</v>
+        <v>0.04047560692997121</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1863461570.173045</v>
+        <v>2535785543.376074</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07900990624824278</v>
+        <v>0.07201515314488698</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04773019995563266</v>
+        <v>0.03239694445922886</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3694495986.186748</v>
+        <v>4205872125.523657</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1577077447448139</v>
+        <v>0.1312775551077651</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05289223476513986</v>
+        <v>0.03631919633362815</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3950135585.599115</v>
+        <v>3379054920.683959</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1123650309176859</v>
+        <v>0.1359694997133701</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02663162820568564</v>
+        <v>0.02957596444964158</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1239229238.710945</v>
+        <v>1304530814.350732</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1343680699038983</v>
+        <v>0.115625915735619</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01901780806876444</v>
+        <v>0.02412279190719208</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2590015836.227932</v>
+        <v>2134351237.068131</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1002943264492277</v>
+        <v>0.1495599512981697</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02348145683310991</v>
+        <v>0.0301271376027497</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2363527260.987872</v>
+        <v>2046083198.289744</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07856988725183592</v>
+        <v>0.09337747169257278</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04003860341873932</v>
+        <v>0.03532114784297482</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3206240988.468059</v>
+        <v>3567459010.228521</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1371676399796014</v>
+        <v>0.09558685856462777</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04941067765803047</v>
+        <v>0.04706723655782402</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1181718817.800898</v>
+        <v>1056362099.810468</v>
       </c>
       <c r="F23" t="n">
-        <v>0.164430863979526</v>
+        <v>0.176110584957146</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04537511772014628</v>
+        <v>0.05146337645741166</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3236984073.876629</v>
+        <v>3795653957.094162</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09650977545878306</v>
+        <v>0.1021194208045151</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02415499058433341</v>
+        <v>0.03614367982746045</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1377088494.670173</v>
+        <v>1435459318.319211</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1172338405598218</v>
+        <v>0.08083678484121905</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02300683580688164</v>
+        <v>0.02305003986592028</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1284582060.621234</v>
+        <v>1009732959.40367</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1023160691320176</v>
+        <v>0.08441350785574082</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03470022653468652</v>
+        <v>0.02496899078109532</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3842879496.907459</v>
+        <v>3369101948.062582</v>
       </c>
       <c r="F27" t="n">
-        <v>0.113842801917273</v>
+        <v>0.1418340190847851</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02298059050874376</v>
+        <v>0.02419608170712394</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3038213038.401093</v>
+        <v>2629283589.27259</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1040103478592989</v>
+        <v>0.1211215968442366</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04262972480099648</v>
+        <v>0.03554181223033074</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5256194595.705747</v>
+        <v>4959698950.158068</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1431108192153667</v>
+        <v>0.1453645883122874</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0365550153960001</v>
+        <v>0.03692970579372347</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1450507164.147934</v>
+        <v>1604648967.383468</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1233420367970586</v>
+        <v>0.1201339514154709</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03547541851024259</v>
+        <v>0.02978020880569531</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1335312943.132594</v>
+        <v>1068900170.471052</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08054632869952244</v>
+        <v>0.08077205312588814</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0457192019636241</v>
+        <v>0.04287458417621427</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1384563537.566831</v>
+        <v>1407346621.020652</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09066031799327144</v>
+        <v>0.1073936964419486</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02659297978139453</v>
+        <v>0.03572983550778028</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2668392274.543785</v>
+        <v>2626963507.713801</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1564433692032502</v>
+        <v>0.1599414340903466</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06062350066765324</v>
+        <v>0.05539366952269954</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1249808468.57952</v>
+        <v>1494426095.735668</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07605266355979781</v>
+        <v>0.1173607564159225</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02149041139402932</v>
+        <v>0.0266383843639933</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>849628572.6600709</v>
+        <v>821268575.7518842</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08669844586861947</v>
+        <v>0.1107451251214216</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03916260833438335</v>
+        <v>0.03448290187758705</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2538758717.311758</v>
+        <v>2391430692.191217</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1169466519060156</v>
+        <v>0.1203895654790229</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02715039241384135</v>
+        <v>0.0254603450373201</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2111356527.377908</v>
+        <v>2584547762.281201</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09104985260364107</v>
+        <v>0.08504941265354994</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03099155942186553</v>
+        <v>0.0419444707643313</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1582339785.054807</v>
+        <v>1860845047.92819</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07581317916652566</v>
+        <v>0.09523565188568311</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02752950932096384</v>
+        <v>0.03888848421251279</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1626146190.186989</v>
+        <v>1869469706.536582</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1442046688114321</v>
+        <v>0.1679232492526992</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02759032930052431</v>
+        <v>0.02549728754329704</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1107637682.305008</v>
+        <v>1218607618.66517</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1442878134907614</v>
+        <v>0.1121165891590115</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05187653617695272</v>
+        <v>0.05791602089063436</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1928955897.317218</v>
+        <v>2517039365.043647</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1107627809671124</v>
+        <v>0.1069477810727027</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04646492098091536</v>
+        <v>0.02948486155493487</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3450645427.713875</v>
+        <v>3905149331.493269</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1064533135201916</v>
+        <v>0.09536280181048937</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04649260791641416</v>
+        <v>0.03552091803706725</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2731920823.525961</v>
+        <v>2878740921.150463</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1312862879403985</v>
+        <v>0.1709714985202336</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02093400772732715</v>
+        <v>0.02251009261031697</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2244952751.741885</v>
+        <v>1445149604.602045</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09216923310885075</v>
+        <v>0.1003887930166817</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03530619195539491</v>
+        <v>0.02249851087587266</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2517119466.953032</v>
+        <v>2163154755.076501</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1244626647420142</v>
+        <v>0.1520773576629694</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04282869502102219</v>
+        <v>0.04383913592595005</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4422535789.442182</v>
+        <v>5456943690.756555</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1546955317578156</v>
+        <v>0.1156236785672062</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05507150236228233</v>
+        <v>0.05944845173301095</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3308083044.742435</v>
+        <v>4989167300.972359</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1444177706187807</v>
+        <v>0.1863198590049265</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0382092781558226</v>
+        <v>0.05618467146253267</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4715376277.825007</v>
+        <v>4131996599.821862</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09183228197606542</v>
+        <v>0.07392820324410594</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02857860913287224</v>
+        <v>0.03139964995737912</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1948890344.500726</v>
+        <v>1445958030.960428</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1754484542029906</v>
+        <v>0.1903460333510541</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03397699950660232</v>
+        <v>0.0410326982351417</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4187023186.759332</v>
+        <v>3369291036.457044</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1719042927341295</v>
+        <v>0.1685608717094726</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04406566291306462</v>
+        <v>0.03996151593434756</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1480720046.362469</v>
+        <v>1047857178.460072</v>
       </c>
       <c r="F51" t="n">
-        <v>0.189619612499827</v>
+        <v>0.1427535547861742</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05174099889653785</v>
+        <v>0.04876044558351774</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4107467646.203099</v>
+        <v>3963050434.767182</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1075248231708086</v>
+        <v>0.1025597950961276</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03919929282403133</v>
+        <v>0.03766078313523368</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3411194736.051071</v>
+        <v>3446546363.083216</v>
       </c>
       <c r="F53" t="n">
-        <v>0.183963728798846</v>
+        <v>0.1973959488325172</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0218263301591462</v>
+        <v>0.02600565684649789</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4809459818.632386</v>
+        <v>4087188169.454551</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1252696814807173</v>
+        <v>0.1334282044840985</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04064212274328715</v>
+        <v>0.04301786003803255</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3461988240.711571</v>
+        <v>4216785258.28535</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1942492106838723</v>
+        <v>0.1697556427286271</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03208403556041117</v>
+        <v>0.02262800932319186</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1199449064.015959</v>
+        <v>1352230844.292646</v>
       </c>
       <c r="F56" t="n">
-        <v>0.131089384402879</v>
+        <v>0.1514700572518005</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0463587093787126</v>
+        <v>0.05447539916125408</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4129749750.892539</v>
+        <v>2852487008.550325</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1437472129107324</v>
+        <v>0.1700168568808139</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02282300201147083</v>
+        <v>0.01836484115691557</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1528747833.702844</v>
+        <v>1663556989.071405</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1975055434686897</v>
+        <v>0.1915783773071228</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0335262883163987</v>
+        <v>0.0346267183453215</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4012127712.663806</v>
+        <v>4872152675.593245</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1286264620720833</v>
+        <v>0.09571421513993973</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03864652882195549</v>
+        <v>0.03226677485046452</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2648568202.985019</v>
+        <v>2292287463.711396</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2064030156660123</v>
+        <v>0.1892270041492735</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02345442407007101</v>
+        <v>0.0327191533392216</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3303260098.028833</v>
+        <v>2889108708.087384</v>
       </c>
       <c r="F61" t="n">
-        <v>0.128410802382516</v>
+        <v>0.179962758632383</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03110416519024792</v>
+        <v>0.02154259179216531</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1770420880.267368</v>
+        <v>1913773044.350005</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1309643372582278</v>
+        <v>0.136230519488076</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03461798304526362</v>
+        <v>0.03126078965245559</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3601316026.380162</v>
+        <v>3799622339.03736</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07353097213664189</v>
+        <v>0.09822515352939534</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03223204760738951</v>
+        <v>0.03791698077089795</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5106395407.287903</v>
+        <v>5336836048.113619</v>
       </c>
       <c r="F64" t="n">
-        <v>0.185413465276367</v>
+        <v>0.1509620727985224</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03460071819126213</v>
+        <v>0.03375901989562913</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4370579470.578367</v>
+        <v>5078911491.911378</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1378119449934317</v>
+        <v>0.1741301968171489</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02838859673601759</v>
+        <v>0.02287356828010336</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4407251096.126269</v>
+        <v>4795056725.154706</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1470219151788338</v>
+        <v>0.1625826586161022</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04518427316905252</v>
+        <v>0.04022390482311999</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2694215036.559229</v>
+        <v>2797300961.32409</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08483513834137363</v>
+        <v>0.1026660775150196</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04912505151079785</v>
+        <v>0.04988482283322997</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4818464015.471245</v>
+        <v>5957867390.978454</v>
       </c>
       <c r="F68" t="n">
-        <v>0.127105691257622</v>
+        <v>0.150388261784728</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04313243089886273</v>
+        <v>0.03544535866601879</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2091432885.780782</v>
+        <v>2401589042.448088</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1167326948790059</v>
+        <v>0.1705116283769902</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05434186237529993</v>
+        <v>0.03630090425022695</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3092259562.895924</v>
+        <v>2342374715.329164</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0993725126691546</v>
+        <v>0.07471112984606595</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04022129633726038</v>
+        <v>0.0471637866272813</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5242177832.152031</v>
+        <v>3834139157.279506</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1308076210379465</v>
+        <v>0.1368242032241076</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02734845403484858</v>
+        <v>0.03369592637417534</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1648790158.149727</v>
+        <v>1625781291.01476</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07885773582189512</v>
+        <v>0.1040307493623344</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03498892204886367</v>
+        <v>0.03414600762661823</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2698853801.13741</v>
+        <v>3444972904.073764</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08331006047707697</v>
+        <v>0.1026117460654564</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04036181299849046</v>
+        <v>0.0398632441793371</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2743545600.808713</v>
+        <v>3350042420.316354</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1588391768195133</v>
+        <v>0.1235437142248151</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0306847610709425</v>
+        <v>0.03146277388960785</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1802484502.420504</v>
+        <v>2357680062.514671</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1238965084569134</v>
+        <v>0.1496379596573467</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0320853674908745</v>
+        <v>0.03424468012654594</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4633365472.23174</v>
+        <v>4768589194.183629</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1236461012878987</v>
+        <v>0.1014519670689984</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0237896107664331</v>
+        <v>0.02188973547300797</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1991669697.592638</v>
+        <v>1437567121.266896</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1568976919531807</v>
+        <v>0.143996323738731</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02976748116385893</v>
+        <v>0.02399870696433107</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3937303577.568426</v>
+        <v>3912799214.950058</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0933106429354838</v>
+        <v>0.1107006054449899</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05194951041079834</v>
+        <v>0.03582430553832254</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1827112656.859924</v>
+        <v>1565613689.308726</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1256227250496095</v>
+        <v>0.1457356497018864</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03309235247106057</v>
+        <v>0.02750716644599367</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3586168289.087876</v>
+        <v>3902219027.927981</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08134718411110552</v>
+        <v>0.07063307843727874</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03069137268002699</v>
+        <v>0.02952338621938393</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3869022208.212534</v>
+        <v>3635153715.460824</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1315927117225667</v>
+        <v>0.1185543713019662</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03140289602381056</v>
+        <v>0.02979447151093879</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5602038494.590352</v>
+        <v>4934787778.576891</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2129477699698902</v>
+        <v>0.1908273393520828</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01940225687427527</v>
+        <v>0.01928108533375368</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2143267714.387228</v>
+        <v>1860651163.226737</v>
       </c>
       <c r="F83" t="n">
-        <v>0.12970420372021</v>
+        <v>0.1093917422703549</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03772507800149135</v>
+        <v>0.03710492244701638</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2376820570.58902</v>
+        <v>2451856374.882629</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08565426182632518</v>
+        <v>0.1067325789526591</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04698706058314262</v>
+        <v>0.04371025745848215</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3039955795.951335</v>
+        <v>2798624826.526047</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1720445790379683</v>
+        <v>0.1803691649939078</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0369183633885057</v>
+        <v>0.05462969147289306</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2349857630.496898</v>
+        <v>2804464073.18269</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1110340425136293</v>
+        <v>0.1643992768380556</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02022749003302064</v>
+        <v>0.02434365384510785</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1350200814.63983</v>
+        <v>1040416041.50334</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1285046006947706</v>
+        <v>0.1839834998873383</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03379886731897425</v>
+        <v>0.02882007287734711</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3711083561.516888</v>
+        <v>2327217300.321763</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1079870493750994</v>
+        <v>0.1349265360625485</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03688554182794282</v>
+        <v>0.03879289614638731</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2499792902.570827</v>
+        <v>3350788048.933504</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1575013060108612</v>
+        <v>0.1219942165326414</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04178582647752446</v>
+        <v>0.02975949044397187</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1708861677.722444</v>
+        <v>1685477264.941336</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1300013575859371</v>
+        <v>0.1261938618141107</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04476040618979353</v>
+        <v>0.04289713931565961</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1349046613.377945</v>
+        <v>1304840849.857362</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1887739583078626</v>
+        <v>0.1750285287131934</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05582766525737523</v>
+        <v>0.05672269641601775</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2865839002.391682</v>
+        <v>2080934757.268553</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1060959512860053</v>
+        <v>0.0806936700814275</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04041762710091669</v>
+        <v>0.0349726396915275</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4016919828.469859</v>
+        <v>3942778594.326149</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1146542970827394</v>
+        <v>0.1254177486029604</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05046092731056477</v>
+        <v>0.05267230368341284</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2078286877.766644</v>
+        <v>2351128707.698347</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1495746828893257</v>
+        <v>0.1121145457971091</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03645581624341359</v>
+        <v>0.04242399382705694</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2824705080.321967</v>
+        <v>2032920265.217225</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1025886532672621</v>
+        <v>0.1324722343740089</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05180690226203698</v>
+        <v>0.05239393788235978</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1636685903.46367</v>
+        <v>1762407836.832764</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1177572665724257</v>
+        <v>0.1343023848655763</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04145347355090023</v>
+        <v>0.04060689774014586</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3269158080.768915</v>
+        <v>4128480668.642878</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1477913127629454</v>
+        <v>0.1170449444465242</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02673907643185799</v>
+        <v>0.021326486191683</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3328380329.630421</v>
+        <v>3094557425.590106</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09564867205215911</v>
+        <v>0.0872565919769203</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02183665577843343</v>
+        <v>0.03167628329997089</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2995344443.303642</v>
+        <v>2280627564.9753</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1221657242939923</v>
+        <v>0.1223502496878806</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0328255623145607</v>
+        <v>0.02707241787405221</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3561525979.483152</v>
+        <v>4574052295.741885</v>
       </c>
       <c r="F100" t="n">
-        <v>0.117758053584089</v>
+        <v>0.1497247317654434</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01889742362922283</v>
+        <v>0.02097769782294445</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3067896322.114964</v>
+        <v>3109463742.970338</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2047091836938944</v>
+        <v>0.1929399530444133</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05516629197763553</v>
+        <v>0.05678730301061426</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_188.xlsx
+++ b/output/fit_clients/fit_round_188.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1799523370.731427</v>
+        <v>2197018540.775533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07986697737972168</v>
+        <v>0.09259516884676103</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03230648615428811</v>
+        <v>0.03686921530493295</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1820451848.253935</v>
+        <v>1907351861.806298</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1115584616506141</v>
+        <v>0.1287577739077479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04390343204664536</v>
+        <v>0.04755286228210714</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4328581822.452294</v>
+        <v>4485739470.137629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1589290878611832</v>
+        <v>0.1244204674821566</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02628550794775789</v>
+        <v>0.02347662073644896</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>104</v>
+      </c>
+      <c r="J4" t="n">
+        <v>187</v>
+      </c>
+      <c r="K4" t="n">
+        <v>121.5793066177136</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2709758421.024787</v>
+        <v>4081037083.256078</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08743355249585064</v>
+        <v>0.1067356208267165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03947466498160201</v>
+        <v>0.04754098196236448</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>188</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2254005121.838453</v>
+        <v>2504092176.906347</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1038368450744901</v>
+        <v>0.1484910359504523</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0391519368793805</v>
+        <v>0.04810015616695089</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2560788707.814266</v>
+        <v>1978476034.634406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09295154196847588</v>
+        <v>0.1010913050261064</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0411294232751054</v>
+        <v>0.04705803260371802</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2606281220.232924</v>
+        <v>3619273436.054396</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1719970785764549</v>
+        <v>0.1980976835019456</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0301536557304513</v>
+        <v>0.02053419445588165</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>53</v>
+      </c>
+      <c r="J8" t="n">
+        <v>187</v>
+      </c>
+      <c r="K8" t="n">
+        <v>102.3378998538094</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2240789743.194445</v>
+        <v>1469779576.212256</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1325012660435445</v>
+        <v>0.1435175820463283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03474323317048137</v>
+        <v>0.0257087174869666</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4886427909.166853</v>
+        <v>4652401856.953914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1904402227577536</v>
+        <v>0.1707137669444874</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0507937285388822</v>
+        <v>0.04734244172837408</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>172</v>
+      </c>
+      <c r="J10" t="n">
+        <v>188</v>
+      </c>
+      <c r="K10" t="n">
+        <v>136.0200375039395</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3805163342.641039</v>
+        <v>3368019817.183736</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1571195370951894</v>
+        <v>0.1655150887548769</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04040107058409716</v>
+        <v>0.0329253161950057</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>188</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2791124781.721396</v>
+        <v>3200281297.884659</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1223519470588291</v>
+        <v>0.1861173202212625</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04170800443889323</v>
+        <v>0.03667665988670358</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4653368093.400019</v>
+        <v>4197586922.568094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08912661809474844</v>
+        <v>0.07030934398771257</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03015271611180772</v>
+        <v>0.02730714440798963</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>93</v>
+      </c>
+      <c r="J13" t="n">
+        <v>188</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3713796909.595987</v>
+        <v>3004274939.816807</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1787334631538289</v>
+        <v>0.1208072954001741</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02902952491766194</v>
+        <v>0.0346400987262964</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>35</v>
+      </c>
+      <c r="J14" t="n">
+        <v>184</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1728284511.09395</v>
+        <v>1327003619.901091</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1094155919012233</v>
+        <v>0.07855401203593984</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04047560692997121</v>
+        <v>0.0371348374383902</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2535785543.376074</v>
+        <v>2874247615.872534</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07201515314488698</v>
+        <v>0.0919561481139578</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03239694445922886</v>
+        <v>0.03289334821559302</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4205872125.523657</v>
+        <v>3911128539.91701</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1312775551077651</v>
+        <v>0.1058815163242287</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03631919633362815</v>
+        <v>0.04585840708580736</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>90</v>
+      </c>
+      <c r="J17" t="n">
+        <v>188</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3379054920.683959</v>
+        <v>3945938062.123621</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1359694997133701</v>
+        <v>0.1778761592498942</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02957596444964158</v>
+        <v>0.0307286214198133</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>187</v>
+      </c>
+      <c r="K18" t="n">
+        <v>119.9455858657027</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1304530814.350732</v>
+        <v>1188241967.353762</v>
       </c>
       <c r="F19" t="n">
-        <v>0.115625915735619</v>
+        <v>0.1627743500664701</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02412279190719208</v>
+        <v>0.01671629380956085</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2134351237.068131</v>
+        <v>2649601208.93474</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1495599512981697</v>
+        <v>0.1599191196237589</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0301271376027497</v>
+        <v>0.02404516828841611</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2046083198.289744</v>
+        <v>2552840301.084075</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09337747169257278</v>
+        <v>0.06735998352542875</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03532114784297482</v>
+        <v>0.04141411701207263</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3567459010.228521</v>
+        <v>3734843596.700191</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09558685856462777</v>
+        <v>0.1251583746523897</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04706723655782402</v>
+        <v>0.03725295441753879</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>187</v>
+      </c>
+      <c r="K22" t="n">
+        <v>98.71584953689481</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1056362099.810468</v>
+        <v>1373954073.205344</v>
       </c>
       <c r="F23" t="n">
-        <v>0.176110584957146</v>
+        <v>0.13538110139384</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05146337645741166</v>
+        <v>0.0514094448757597</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3795653957.094162</v>
+        <v>2788723016.93027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1021194208045151</v>
+        <v>0.1279012651773905</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03614367982746045</v>
+        <v>0.02766411467343501</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>59</v>
+      </c>
+      <c r="J24" t="n">
+        <v>187</v>
+      </c>
+      <c r="K24" t="n">
+        <v>54.6539836115683</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1435459318.319211</v>
+        <v>1360724945.669608</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08083678484121905</v>
+        <v>0.1184398632603562</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02305003986592028</v>
+        <v>0.02131581713476068</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1009732959.40367</v>
+        <v>964116500.6171895</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08441350785574082</v>
+        <v>0.07753405616228523</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02496899078109532</v>
+        <v>0.02512947184592907</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3369101948.062582</v>
+        <v>4522234360.835728</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1418340190847851</v>
+        <v>0.107731690178744</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02419608170712394</v>
+        <v>0.02207875896107556</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>75</v>
+      </c>
+      <c r="J27" t="n">
+        <v>187</v>
+      </c>
+      <c r="K27" t="n">
+        <v>105.6544530678688</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2629283589.27259</v>
+        <v>3230645125.694075</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1211215968442366</v>
+        <v>0.1465956371254111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03554181223033074</v>
+        <v>0.04424441176496045</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>38</v>
+      </c>
+      <c r="J28" t="n">
+        <v>185</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4959698950.158068</v>
+        <v>4122348191.450809</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1453645883122874</v>
+        <v>0.117239682583889</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03692970579372347</v>
+        <v>0.03949517946151175</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>177</v>
+      </c>
+      <c r="J29" t="n">
+        <v>188</v>
+      </c>
+      <c r="K29" t="n">
+        <v>141.7554362031202</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1604648967.383468</v>
+        <v>1481548038.909586</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1201339514154709</v>
+        <v>0.1249462344776886</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02978020880569531</v>
+        <v>0.03605964799648739</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1068900170.471052</v>
+        <v>1002642982.135126</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08077205312588814</v>
+        <v>0.08179056541988304</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04287458417621427</v>
+        <v>0.04695398150009432</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1407346621.020652</v>
+        <v>1838997709.664833</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1073936964419486</v>
+        <v>0.1170646441505083</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03572983550778028</v>
+        <v>0.02635515216961518</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2626963507.713801</v>
+        <v>3023586586.360198</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1599414340903466</v>
+        <v>0.158713626247555</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05539366952269954</v>
+        <v>0.04132793340684707</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1494426095.735668</v>
+        <v>1218254835.139385</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1173607564159225</v>
+        <v>0.1207190392891075</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0266383843639933</v>
+        <v>0.01868812505605102</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>821268575.7518842</v>
+        <v>1053967453.826476</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1107451251214216</v>
+        <v>0.1139050159892068</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03448290187758705</v>
+        <v>0.0288400289512595</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2391430692.191217</v>
+        <v>2586181016.349113</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1203895654790229</v>
+        <v>0.115183682926081</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0254603450373201</v>
+        <v>0.0258889951519792</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2584547762.281201</v>
+        <v>2531303142.182896</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08504941265354994</v>
+        <v>0.09651616564307634</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0419444707643313</v>
+        <v>0.03660424905663254</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1860845047.92819</v>
+        <v>1493266031.345082</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09523565188568311</v>
+        <v>0.1080405341431099</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03888848421251279</v>
+        <v>0.03605509611430739</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1869469706.536582</v>
+        <v>1491961030.791298</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1679232492526992</v>
+        <v>0.1209879694889412</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02549728754329704</v>
+        <v>0.02632706963953341</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1218607618.66517</v>
+        <v>1620611390.827087</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1121165891590115</v>
+        <v>0.1116833742105996</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05791602089063436</v>
+        <v>0.05719313055865525</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2517039365.043647</v>
+        <v>2402629922.048449</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1069477810727027</v>
+        <v>0.1568100726071076</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02948486155493487</v>
+        <v>0.02991046774586677</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3905149331.493269</v>
+        <v>4034953839.811361</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09536280181048937</v>
+        <v>0.1273672631580867</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03552091803706725</v>
+        <v>0.04441853283408745</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>71</v>
+      </c>
+      <c r="J42" t="n">
+        <v>188</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2878740921.150463</v>
+        <v>2457696452.089472</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1709714985202336</v>
+        <v>0.1343781928985991</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02251009261031697</v>
+        <v>0.02463390102933019</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1445149604.602045</v>
+        <v>1923531615.758464</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1003887930166817</v>
+        <v>0.09382748377223325</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02249851087587266</v>
+        <v>0.03690678267394697</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2163154755.076501</v>
+        <v>1973738110.197545</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1520773576629694</v>
+        <v>0.1321313058543875</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04383913592595005</v>
+        <v>0.0554213323686794</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5456943690.756555</v>
+        <v>3600713165.701504</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1156236785672062</v>
+        <v>0.1388409918100017</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05944845173301095</v>
+        <v>0.04237109205205592</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>107</v>
+      </c>
+      <c r="J46" t="n">
+        <v>187</v>
+      </c>
+      <c r="K46" t="n">
+        <v>102.8797644625139</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4989167300.972359</v>
+        <v>4267816166.561544</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1863198590049265</v>
+        <v>0.1356345777207267</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05618467146253267</v>
+        <v>0.03937750270357956</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>83</v>
+      </c>
+      <c r="J47" t="n">
+        <v>188</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4131996599.821862</v>
+        <v>3707829681.313724</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07392820324410594</v>
+        <v>0.08007537454619736</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03139964995737912</v>
+        <v>0.03843600972545763</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>88</v>
+      </c>
+      <c r="J48" t="n">
+        <v>188</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1445958030.960428</v>
+        <v>1730365192.580003</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1903460333510541</v>
+        <v>0.1509197751856322</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0410326982351417</v>
+        <v>0.03445054029237452</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2199,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3369291036.457044</v>
+        <v>4078231332.903724</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1685608717094726</v>
+        <v>0.1674193040282876</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03996151593434756</v>
+        <v>0.04715880604779781</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>59</v>
+      </c>
+      <c r="J50" t="n">
+        <v>188</v>
+      </c>
+      <c r="K50" t="n">
+        <v>126.7128317081679</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1047857178.460072</v>
+        <v>1304507319.341295</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1427535547861742</v>
+        <v>0.1796602615258652</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04876044558351774</v>
+        <v>0.04235250576365059</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3963050434.767182</v>
+        <v>3985210153.23553</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1025597950961276</v>
+        <v>0.1205410106759766</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03766078313523368</v>
+        <v>0.05234262411231478</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>132</v>
+      </c>
+      <c r="J52" t="n">
+        <v>187</v>
+      </c>
+      <c r="K52" t="n">
+        <v>123.759480599931</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3446546363.083216</v>
+        <v>2310455383.758494</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1973959488325172</v>
+        <v>0.164293142723316</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02600565684649789</v>
+        <v>0.02707774780643624</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4087188169.454551</v>
+        <v>3103199282.465778</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1334282044840985</v>
+        <v>0.125888070838114</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04301786003803255</v>
+        <v>0.03786018559712377</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>95</v>
+      </c>
+      <c r="J54" t="n">
+        <v>186</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4216785258.28535</v>
+        <v>3039875933.195138</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1697556427286271</v>
+        <v>0.1427669935463392</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02262800932319186</v>
+        <v>0.02792977712292076</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>85</v>
+      </c>
+      <c r="J55" t="n">
+        <v>186</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1352230844.292646</v>
+        <v>1141899892.676175</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1514700572518005</v>
+        <v>0.1072187325733451</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05447539916125408</v>
+        <v>0.04161076225462593</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2852487008.550325</v>
+        <v>2877141107.389364</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1700168568808139</v>
+        <v>0.111878105167365</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01836484115691557</v>
+        <v>0.01874042634517276</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>75</v>
+      </c>
+      <c r="J57" t="n">
+        <v>186</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1663556989.071405</v>
+        <v>1351223420.511867</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1915783773071228</v>
+        <v>0.1278140648746199</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0346267183453215</v>
+        <v>0.02989034214568869</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4872152675.593245</v>
+        <v>3862297702.598525</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09571421513993973</v>
+        <v>0.08685890151435054</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03226677485046452</v>
+        <v>0.04203740695370092</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>90</v>
+      </c>
+      <c r="J59" t="n">
+        <v>188</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2292287463.711396</v>
+        <v>2773402632.323537</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1892270041492735</v>
+        <v>0.178522418606464</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0327191533392216</v>
+        <v>0.0308327947406158</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>27</v>
+      </c>
+      <c r="J60" t="n">
+        <v>187</v>
+      </c>
+      <c r="K60" t="n">
+        <v>62.29020026152504</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2889108708.087384</v>
+        <v>3295224411.465712</v>
       </c>
       <c r="F61" t="n">
-        <v>0.179962758632383</v>
+        <v>0.1244126667492123</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02154259179216531</v>
+        <v>0.02671687539227608</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1913773044.350005</v>
+        <v>1637812653.313454</v>
       </c>
       <c r="F62" t="n">
-        <v>0.136230519488076</v>
+        <v>0.1870604309536189</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03126078965245559</v>
+        <v>0.03914622637663018</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3799622339.03736</v>
+        <v>5294323109.241522</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09822515352939534</v>
+        <v>0.0783193683519056</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03791698077089795</v>
+        <v>0.03339608396073361</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>92</v>
+      </c>
+      <c r="J63" t="n">
+        <v>188</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5336836048.113619</v>
+        <v>4639167937.879801</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1509620727985224</v>
+        <v>0.1627984630752884</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03375901989562913</v>
+        <v>0.02188403844365991</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>92</v>
+      </c>
+      <c r="J64" t="n">
+        <v>188</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5078911491.911378</v>
+        <v>3684731517.791014</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1741301968171489</v>
+        <v>0.1324462801421915</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02287356828010336</v>
+        <v>0.03177874701129939</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>152</v>
+      </c>
+      <c r="J65" t="n">
+        <v>188</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4795056725.154706</v>
+        <v>5735288171.410757</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1625826586161022</v>
+        <v>0.1088639650622282</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04022390482311999</v>
+        <v>0.03823110763607664</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>92</v>
+      </c>
+      <c r="J66" t="n">
+        <v>188</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2797300961.32409</v>
+        <v>3240613299.926291</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1026660775150196</v>
+        <v>0.07467832202380578</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04988482283322997</v>
+        <v>0.03353442493171492</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5957867390.978454</v>
+        <v>3832864556.691984</v>
       </c>
       <c r="F68" t="n">
-        <v>0.150388261784728</v>
+        <v>0.1483068788587991</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03544535866601879</v>
+        <v>0.04491071074100793</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>95</v>
+      </c>
+      <c r="J68" t="n">
+        <v>187</v>
+      </c>
+      <c r="K68" t="n">
+        <v>111.1676817883967</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2401589042.448088</v>
+        <v>1496509109.397965</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1705116283769902</v>
+        <v>0.1536033255520652</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03630090425022695</v>
+        <v>0.0556143089181596</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2342374715.329164</v>
+        <v>2826157629.179815</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07471112984606595</v>
+        <v>0.06267221612790645</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0471637866272813</v>
+        <v>0.03306517321063772</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>185</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3834139157.279506</v>
+        <v>4917876411.310158</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1368242032241076</v>
+        <v>0.1810587081471591</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03369592637417534</v>
+        <v>0.02597816108699293</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>145</v>
+      </c>
+      <c r="J71" t="n">
+        <v>188</v>
+      </c>
+      <c r="K71" t="n">
+        <v>127.1479252657147</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1625781291.01476</v>
+        <v>1742386632.179557</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1040307493623344</v>
+        <v>0.08869656983521551</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03414600762661823</v>
+        <v>0.05152251401721167</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3444972904.073764</v>
+        <v>2209187779.286767</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1026117460654564</v>
+        <v>0.06800544985273663</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0398632441793371</v>
+        <v>0.03195675074461537</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3350042420.316354</v>
+        <v>3271613940.153285</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1235437142248151</v>
+        <v>0.1208367092544888</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03146277388960785</v>
+        <v>0.03349640245664373</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>54</v>
+      </c>
+      <c r="J74" t="n">
+        <v>187</v>
+      </c>
+      <c r="K74" t="n">
+        <v>86.48942505974085</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2357680062.514671</v>
+        <v>1526547549.068895</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1496379596573467</v>
+        <v>0.1349093912015538</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03424468012654594</v>
+        <v>0.0370113975756076</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4768589194.183629</v>
+        <v>5004420908.532465</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1014519670689984</v>
+        <v>0.1130045756630751</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02188973547300797</v>
+        <v>0.02638391958200162</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>86</v>
+      </c>
+      <c r="J76" t="n">
+        <v>187</v>
+      </c>
+      <c r="K76" t="n">
+        <v>105.8545199905916</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1437567121.266896</v>
+        <v>1767440165.985682</v>
       </c>
       <c r="F77" t="n">
-        <v>0.143996323738731</v>
+        <v>0.1223976212532257</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02399870696433107</v>
+        <v>0.01930982807789609</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3912799214.950058</v>
+        <v>2909316422.841987</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1107006054449899</v>
+        <v>0.09045083987848455</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03582430553832254</v>
+        <v>0.05479341087292516</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>96</v>
+      </c>
+      <c r="J78" t="n">
+        <v>186</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1565613689.308726</v>
+        <v>1282394661.838122</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1457356497018864</v>
+        <v>0.1635484948647559</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02750716644599367</v>
+        <v>0.02504267724206678</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3902219027.927981</v>
+        <v>4435478519.516991</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07063307843727874</v>
+        <v>0.08411180951572311</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02952338621938393</v>
+        <v>0.03431830972922174</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>92</v>
+      </c>
+      <c r="J80" t="n">
+        <v>187</v>
+      </c>
+      <c r="K80" t="n">
+        <v>92.22189783101292</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3635153715.460824</v>
+        <v>5214895134.269883</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1185543713019662</v>
+        <v>0.09670247277291719</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02979447151093879</v>
+        <v>0.02289231402588388</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>86</v>
+      </c>
+      <c r="J81" t="n">
+        <v>187</v>
+      </c>
+      <c r="K81" t="n">
+        <v>108.3526543651345</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4934787778.576891</v>
+        <v>4375129618.554935</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1908273393520828</v>
+        <v>0.2131589504871943</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01928108533375368</v>
+        <v>0.02601355560747448</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>139</v>
+      </c>
+      <c r="J82" t="n">
+        <v>188</v>
+      </c>
+      <c r="K82" t="n">
+        <v>133.1153299104672</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1860651163.226737</v>
+        <v>1626543566.401578</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1093917422703549</v>
+        <v>0.1018015345972075</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03710492244701638</v>
+        <v>0.03646202241899415</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2451856374.882629</v>
+        <v>2120667631.620454</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1067325789526591</v>
+        <v>0.1204952961657718</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04371025745848215</v>
+        <v>0.03844797280787134</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2798624826.526047</v>
+        <v>2524090955.485598</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1803691649939078</v>
+        <v>0.1792554297593283</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05462969147289306</v>
+        <v>0.04295521003063552</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2804464073.18269</v>
+        <v>2495422065.892095</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1643992768380556</v>
+        <v>0.1167777632044533</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02434365384510785</v>
+        <v>0.02598956424577252</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1040416041.50334</v>
+        <v>1004552776.586769</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1839834998873383</v>
+        <v>0.1194539232780893</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02882007287734711</v>
+        <v>0.0297493138174142</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2327217300.321763</v>
+        <v>3188892456.331246</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1349265360625485</v>
+        <v>0.1666408209360977</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03879289614638731</v>
+        <v>0.02529110443694835</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>185</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3350788048.933504</v>
+        <v>2786029485.466298</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1219942165326414</v>
+        <v>0.1073986990303805</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02975949044397187</v>
+        <v>0.03521090683876568</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1685477264.941336</v>
+        <v>2118759177.96406</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1261938618141107</v>
+        <v>0.1138830804766784</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04289713931565961</v>
+        <v>0.04163506140536886</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1304840849.857362</v>
+        <v>1812028543.577211</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1750285287131934</v>
+        <v>0.1813595046150829</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05672269641601775</v>
+        <v>0.05957940031391218</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2080934757.268553</v>
+        <v>2502722066.479772</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0806936700814275</v>
+        <v>0.09816170021031378</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0349726396915275</v>
+        <v>0.04695286523950545</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3942778594.326149</v>
+        <v>3487875064.74352</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1254177486029604</v>
+        <v>0.1370816880133326</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05267230368341284</v>
+        <v>0.0420250575780313</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>84</v>
+      </c>
+      <c r="J93" t="n">
+        <v>188</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2351128707.698347</v>
+        <v>1785072749.200598</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1121145457971091</v>
+        <v>0.10704326926535</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04242399382705694</v>
+        <v>0.03814008383397057</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2032920265.217225</v>
+        <v>2551834973.738323</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1324722343740089</v>
+        <v>0.09677332555240888</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05239393788235978</v>
+        <v>0.03190269984476794</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1762407836.832764</v>
+        <v>2002409809.585986</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1343023848655763</v>
+        <v>0.1291570344437412</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04060689774014586</v>
+        <v>0.04501689125226954</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4128480668.642878</v>
+        <v>3975866875.386184</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1170449444465242</v>
+        <v>0.122413605132299</v>
       </c>
       <c r="G97" t="n">
-        <v>0.021326486191683</v>
+        <v>0.01775926913990846</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>91</v>
+      </c>
+      <c r="J97" t="n">
+        <v>187</v>
+      </c>
+      <c r="K97" t="n">
+        <v>121.1767491413407</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3094557425.590106</v>
+        <v>3031679751.113629</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0872565919769203</v>
+        <v>0.1038122839771956</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03167628329997089</v>
+        <v>0.02980217255957734</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>46</v>
+      </c>
+      <c r="J98" t="n">
+        <v>185</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2280627564.9753</v>
+        <v>2349125060.060516</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1223502496878806</v>
+        <v>0.1128599387215095</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02707241787405221</v>
+        <v>0.02188163897596051</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4574052295.741885</v>
+        <v>3228537637.915056</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1497247317654434</v>
+        <v>0.132941591761283</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02097769782294445</v>
+        <v>0.02799519766462118</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>78</v>
+      </c>
+      <c r="J100" t="n">
+        <v>186</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3109463742.970338</v>
+        <v>2430782504.651328</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1929399530444133</v>
+        <v>0.1519604710944452</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05678730301061426</v>
+        <v>0.04011459506243528</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
